--- a/Code/Results/Cases/Case_7_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_21/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.51121749562488</v>
+        <v>21.29825819418657</v>
       </c>
       <c r="C2">
-        <v>18.70891953474328</v>
+        <v>14.67029997986084</v>
       </c>
       <c r="D2">
-        <v>4.623759795687129</v>
+        <v>7.255855573924529</v>
       </c>
       <c r="E2">
-        <v>9.702143942758886</v>
+        <v>10.94359949895674</v>
       </c>
       <c r="F2">
-        <v>36.31451474318773</v>
+        <v>24.31254685450186</v>
       </c>
       <c r="G2">
-        <v>2.074612357967988</v>
+        <v>2.070732996809663</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.651411829218692</v>
+        <v>6.370152244932494</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.88528006285743</v>
+        <v>11.59970368416773</v>
       </c>
       <c r="O2">
-        <v>25.84368478954243</v>
+        <v>16.59309599656901</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.70310887896117</v>
+        <v>19.85693696872408</v>
       </c>
       <c r="C3">
-        <v>17.3760004555303</v>
+        <v>13.72584812413695</v>
       </c>
       <c r="D3">
-        <v>4.460100802272551</v>
+        <v>6.946572834078729</v>
       </c>
       <c r="E3">
-        <v>9.310107785546265</v>
+        <v>10.48205352837563</v>
       </c>
       <c r="F3">
-        <v>34.82947594225704</v>
+        <v>23.54637279343334</v>
       </c>
       <c r="G3">
-        <v>2.085585780142708</v>
+        <v>2.0768874701919</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.521290765697326</v>
+        <v>6.249913478039235</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.18656133779579</v>
+        <v>11.73960201261923</v>
       </c>
       <c r="O3">
-        <v>24.92566740322799</v>
+        <v>16.26225168450779</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.539801055493</v>
+        <v>18.91987460438813</v>
       </c>
       <c r="C4">
-        <v>16.51592899800205</v>
+        <v>13.11251562420384</v>
       </c>
       <c r="D4">
-        <v>4.358233937686513</v>
+        <v>6.752536388211486</v>
       </c>
       <c r="E4">
-        <v>9.068736813455553</v>
+        <v>10.19483791288564</v>
       </c>
       <c r="F4">
-        <v>33.93221443639214</v>
+        <v>23.08889669017823</v>
       </c>
       <c r="G4">
-        <v>2.092469919171739</v>
+        <v>2.080779631713158</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.445431985508621</v>
+        <v>6.178855341097096</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.37370412112756</v>
+        <v>11.82923229645132</v>
       </c>
       <c r="O4">
-        <v>24.37920836641967</v>
+        <v>16.07441529594741</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.08804518797513</v>
+        <v>18.52483064858136</v>
       </c>
       <c r="C5">
-        <v>16.1548195649145</v>
+        <v>12.85415431329338</v>
       </c>
       <c r="D5">
-        <v>4.316425801419187</v>
+        <v>6.672533652125861</v>
       </c>
       <c r="E5">
-        <v>8.970313773848023</v>
+        <v>10.07699829207591</v>
       </c>
       <c r="F5">
-        <v>33.57050108140348</v>
+        <v>22.90592769983499</v>
       </c>
       <c r="G5">
-        <v>2.095314863893698</v>
+        <v>2.08239501978583</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.41552080839501</v>
+        <v>6.150609723749625</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.45058035721981</v>
+        <v>11.86668445225849</v>
       </c>
       <c r="O5">
-        <v>24.16092779377415</v>
+        <v>16.00169022546405</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.01236310706131</v>
+        <v>18.45843516424259</v>
       </c>
       <c r="C6">
-        <v>16.09421192177367</v>
+        <v>12.81074459226954</v>
       </c>
       <c r="D6">
-        <v>4.309467267820724</v>
+        <v>6.659196462129667</v>
       </c>
       <c r="E6">
-        <v>8.953970269198249</v>
+        <v>10.05738818685453</v>
       </c>
       <c r="F6">
-        <v>33.51068477069175</v>
+        <v>22.87576033513061</v>
       </c>
       <c r="G6">
-        <v>2.09578973392298</v>
+        <v>2.082665046452617</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.410614210531906</v>
+        <v>6.145962921189128</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.4633846940472</v>
+        <v>11.87295904732061</v>
       </c>
       <c r="O6">
-        <v>24.12495110237933</v>
+        <v>15.98984387210775</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.53375340981455</v>
+        <v>18.91460039590025</v>
       </c>
       <c r="C7">
-        <v>16.51110215001223</v>
+        <v>13.10906539315818</v>
       </c>
       <c r="D7">
-        <v>4.357671228404701</v>
+        <v>6.751461060214995</v>
       </c>
       <c r="E7">
-        <v>9.067409550061486</v>
+        <v>10.19325168079859</v>
       </c>
       <c r="F7">
-        <v>33.92731995260196</v>
+        <v>23.0864148516096</v>
       </c>
       <c r="G7">
-        <v>2.092508123221217</v>
+        <v>2.080801297717209</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.445024553449759</v>
+        <v>6.178471512676666</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.37473832313275</v>
+        <v>11.82973364936093</v>
       </c>
       <c r="O7">
-        <v>24.37624660562398</v>
+        <v>16.07341908220269</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.89917614153149</v>
+        <v>20.81204846437233</v>
       </c>
       <c r="C8">
-        <v>18.257879660919</v>
+        <v>14.35158005525482</v>
       </c>
       <c r="D8">
-        <v>4.56764481255578</v>
+        <v>7.150134005780759</v>
       </c>
       <c r="E8">
-        <v>9.567163372980382</v>
+        <v>10.78534480057608</v>
       </c>
       <c r="F8">
-        <v>35.79959601751588</v>
+        <v>24.04579900190038</v>
       </c>
       <c r="G8">
-        <v>2.078367355712938</v>
+        <v>2.07283204863323</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.605700403572541</v>
+        <v>6.328128462010532</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.98875979468246</v>
+        <v>11.64715863970987</v>
       </c>
       <c r="O8">
-        <v>25.52362326614076</v>
+        <v>16.47583184992401</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.11208558831432</v>
+        <v>24.12365027381585</v>
       </c>
       <c r="C9">
-        <v>21.36037258444869</v>
+        <v>16.52403754500237</v>
       </c>
       <c r="D9">
-        <v>4.966573665016728</v>
+        <v>7.895067249500111</v>
       </c>
       <c r="E9">
-        <v>10.53837022181222</v>
+        <v>11.90991294494926</v>
       </c>
       <c r="F9">
-        <v>39.57813143544098</v>
+        <v>26.02153316791786</v>
       </c>
       <c r="G9">
-        <v>2.051660013503366</v>
+        <v>2.058064214650282</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.95347036110215</v>
+        <v>6.64289413903665</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.24538273054965</v>
+        <v>11.31934572508923</v>
       </c>
       <c r="O9">
-        <v>27.90797313540596</v>
+        <v>17.38703643713416</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.95839754643707</v>
+        <v>26.31286194398708</v>
       </c>
       <c r="C10">
-        <v>23.45479392658273</v>
+        <v>17.96133058340591</v>
       </c>
       <c r="D10">
-        <v>5.249821742010914</v>
+        <v>8.415448057370893</v>
       </c>
       <c r="E10">
-        <v>11.24329675756081</v>
+        <v>12.70708931812574</v>
       </c>
       <c r="F10">
-        <v>42.41410749424517</v>
+        <v>27.52032467209907</v>
       </c>
       <c r="G10">
-        <v>2.032444232651526</v>
+        <v>2.047680319882213</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.23006000615734</v>
+        <v>6.886240258751493</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.70196355831491</v>
+        <v>11.09791441762658</v>
       </c>
       <c r="O10">
-        <v>29.74174171269527</v>
+        <v>18.13120347262818</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.20293003606506</v>
+        <v>27.25713444601675</v>
       </c>
       <c r="C11">
-        <v>24.37048856310082</v>
+        <v>18.58131223157303</v>
       </c>
       <c r="D11">
-        <v>5.376258285712592</v>
+        <v>8.645654290677014</v>
       </c>
       <c r="E11">
-        <v>11.56189782308302</v>
+        <v>13.06241615935669</v>
       </c>
       <c r="F11">
-        <v>43.71814883600567</v>
+        <v>28.21063036451599</v>
       </c>
       <c r="G11">
-        <v>2.023734557915931</v>
+        <v>2.043043704952248</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.360820952505287</v>
+        <v>6.999399788861334</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.45395710749779</v>
+        <v>11.00166787206178</v>
       </c>
       <c r="O11">
-        <v>30.59490565096284</v>
+        <v>18.48591845061824</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.66733430803247</v>
+        <v>27.607393307628</v>
       </c>
       <c r="C12">
-        <v>24.7121994027104</v>
+        <v>18.8112713055688</v>
       </c>
       <c r="D12">
-        <v>5.423775492363052</v>
+        <v>8.731848464175036</v>
       </c>
       <c r="E12">
-        <v>11.68226017532253</v>
+        <v>13.19585742325923</v>
       </c>
       <c r="F12">
-        <v>44.21418398615463</v>
+        <v>28.47313760543145</v>
       </c>
       <c r="G12">
-        <v>2.020435573652164</v>
+        <v>2.04129921843724</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.411086275144611</v>
+        <v>7.042592043179775</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.35979811678269</v>
+        <v>10.96589428246108</v>
       </c>
       <c r="O12">
-        <v>30.92089047802127</v>
+        <v>18.62256125853159</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.56761602677604</v>
+        <v>27.53228248200869</v>
       </c>
       <c r="C13">
-        <v>24.63882515551881</v>
+        <v>18.76195872758499</v>
       </c>
       <c r="D13">
-        <v>5.41355803950673</v>
+        <v>8.713329157198171</v>
       </c>
       <c r="E13">
-        <v>11.65635016173048</v>
+        <v>13.16716876571043</v>
       </c>
       <c r="F13">
-        <v>44.10725016662386</v>
+        <v>28.41655445896437</v>
       </c>
       <c r="G13">
-        <v>2.021146198981151</v>
+        <v>2.041674442781834</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.400226695464614</v>
+        <v>7.033274815195213</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.38009001687448</v>
+        <v>10.97356834603051</v>
       </c>
       <c r="O13">
-        <v>30.85055055842593</v>
+        <v>18.59302968996565</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.24127238929054</v>
+        <v>27.2860964716798</v>
       </c>
       <c r="C14">
-        <v>24.39870060391247</v>
+        <v>18.60032726953541</v>
       </c>
       <c r="D14">
-        <v>5.380174856296927</v>
+        <v>8.652765383520416</v>
       </c>
       <c r="E14">
-        <v>11.57180564483362</v>
+        <v>13.07341705430308</v>
       </c>
       <c r="F14">
-        <v>43.75891166880884</v>
+        <v>28.23220544875792</v>
       </c>
       <c r="G14">
-        <v>2.023463198356227</v>
+        <v>2.042899965888897</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.364941040161671</v>
+        <v>7.002946466091958</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.44621627801361</v>
+        <v>10.99871109580655</v>
       </c>
       <c r="O14">
-        <v>30.62166494546687</v>
+        <v>18.49711367381007</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.04049379736529</v>
+        <v>27.13435078458784</v>
       </c>
       <c r="C15">
-        <v>24.25096983014294</v>
+        <v>18.50069801099489</v>
       </c>
       <c r="D15">
-        <v>5.359679309977817</v>
+        <v>8.615539620867935</v>
       </c>
       <c r="E15">
-        <v>11.51998343169089</v>
+        <v>13.01584491476757</v>
       </c>
       <c r="F15">
-        <v>43.54584252580125</v>
+        <v>28.11942706019721</v>
       </c>
       <c r="G15">
-        <v>2.024882148526823</v>
+        <v>2.043652067745571</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.343426427864856</v>
+        <v>6.98441358214809</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.48668462837668</v>
+        <v>11.01420029107341</v>
       </c>
       <c r="O15">
-        <v>30.48185175057487</v>
+        <v>18.43866429425895</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.87608215496056</v>
+        <v>26.25012183667562</v>
       </c>
       <c r="C16">
-        <v>23.39422896367164</v>
+        <v>17.92013658584324</v>
       </c>
       <c r="D16">
-        <v>5.241508829226786</v>
+        <v>8.400268492920542</v>
       </c>
       <c r="E16">
-        <v>11.22243422282025</v>
+        <v>12.68371503163618</v>
       </c>
       <c r="F16">
-        <v>42.32918153987467</v>
+        <v>27.4753717560163</v>
       </c>
       <c r="G16">
-        <v>2.033013624788546</v>
+        <v>2.047984983362136</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.221616938430964</v>
+        <v>6.878893389324723</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.71814451885553</v>
+        <v>11.10429689263888</v>
       </c>
       <c r="O16">
-        <v>29.68638086222125</v>
+        <v>18.1083470228663</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.14911599816524</v>
+        <v>25.6945304487358</v>
       </c>
       <c r="C17">
-        <v>22.85934535682833</v>
+        <v>17.55534714964815</v>
       </c>
       <c r="D17">
-        <v>5.168384040881037</v>
+        <v>8.266503508839605</v>
       </c>
       <c r="E17">
-        <v>11.03936733865384</v>
+        <v>12.47804144221292</v>
       </c>
       <c r="F17">
-        <v>41.58648469003077</v>
+        <v>27.08234750632743</v>
       </c>
       <c r="G17">
-        <v>2.038006534341698</v>
+        <v>2.050664547684606</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.14818021371977</v>
+        <v>6.814780547408213</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.8598448384505</v>
+        <v>11.16073538397178</v>
       </c>
       <c r="O17">
-        <v>29.20334806439889</v>
+        <v>17.90984794711922</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.72622869995865</v>
+        <v>25.37010457425231</v>
       </c>
       <c r="C18">
-        <v>22.54818618326312</v>
+        <v>17.34234025124083</v>
       </c>
       <c r="D18">
-        <v>5.126097728717503</v>
+        <v>8.188953806437018</v>
       </c>
       <c r="E18">
-        <v>10.93387453834576</v>
+        <v>12.35905763971156</v>
       </c>
       <c r="F18">
-        <v>41.16059669844987</v>
+        <v>26.85709554648269</v>
       </c>
       <c r="G18">
-        <v>2.040881667111954</v>
+        <v>2.052214036242184</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.106403367061803</v>
+        <v>6.778136715185824</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.94128011857299</v>
+        <v>11.19361741922258</v>
       </c>
       <c r="O18">
-        <v>28.92729063106984</v>
+        <v>17.79720079809971</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.5822195037402</v>
+        <v>25.2594209599499</v>
       </c>
       <c r="C19">
-        <v>22.44222231502502</v>
+        <v>17.26967041992172</v>
       </c>
       <c r="D19">
-        <v>5.111741907455079</v>
+        <v>8.1625932400928</v>
       </c>
       <c r="E19">
-        <v>10.89812258786369</v>
+        <v>12.31865616160228</v>
       </c>
       <c r="F19">
-        <v>41.01661564148799</v>
+        <v>26.78097149417018</v>
       </c>
       <c r="G19">
-        <v>2.041855864079187</v>
+        <v>2.052740123223719</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.092336777153878</v>
+        <v>6.765770044116147</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.96884489801427</v>
+        <v>11.20482207285659</v>
       </c>
       <c r="O19">
-        <v>28.83412218702214</v>
+        <v>17.75932250124592</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.2269925523695</v>
+        <v>25.75417680229357</v>
       </c>
       <c r="C20">
-        <v>22.91664575676696</v>
+        <v>17.59450935861528</v>
       </c>
       <c r="D20">
-        <v>5.176191907758485</v>
+        <v>8.280806663433102</v>
       </c>
       <c r="E20">
-        <v>11.05887555817992</v>
+        <v>12.50000722863746</v>
       </c>
       <c r="F20">
-        <v>41.66541119837994</v>
+        <v>27.12410322844357</v>
       </c>
       <c r="G20">
-        <v>2.037474721223222</v>
+        <v>2.0503784557081</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.155949613167044</v>
+        <v>6.821581538505153</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.8447684200854</v>
+        <v>11.1546837396292</v>
       </c>
       <c r="O20">
-        <v>29.25458346680064</v>
+        <v>17.93082082637775</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.33731088067031</v>
+        <v>27.35860498201472</v>
       </c>
       <c r="C21">
-        <v>24.46936538728169</v>
+        <v>18.64793256110145</v>
       </c>
       <c r="D21">
-        <v>5.389990195759575</v>
+        <v>8.670581314915529</v>
       </c>
       <c r="E21">
-        <v>11.59664591234893</v>
+        <v>13.10098482196991</v>
       </c>
       <c r="F21">
-        <v>43.86116439585147</v>
+        <v>28.28632406760679</v>
       </c>
       <c r="G21">
-        <v>2.022782708247671</v>
+        <v>2.042539703608508</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.375284603480627</v>
+        <v>7.011845464431741</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.42680112342455</v>
+        <v>10.99130755405494</v>
       </c>
       <c r="O21">
-        <v>30.68881333879001</v>
+        <v>18.52522361506246</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.67666620818553</v>
+        <v>28.3645968007907</v>
       </c>
       <c r="C22">
-        <v>25.45492584612932</v>
+        <v>19.30837133950716</v>
       </c>
       <c r="D22">
-        <v>5.527611090851024</v>
+        <v>8.919597304604794</v>
       </c>
       <c r="E22">
-        <v>11.94647490908019</v>
+        <v>13.48725317699134</v>
       </c>
       <c r="F22">
-        <v>45.30937330053212</v>
+        <v>29.05230164885852</v>
       </c>
       <c r="G22">
-        <v>2.013172795612629</v>
+        <v>2.037481847023032</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.523024488046652</v>
+        <v>7.138178883227727</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.15214049702416</v>
+        <v>10.88846997161662</v>
       </c>
       <c r="O22">
-        <v>31.64327724335265</v>
+        <v>18.92722247666022</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.96534334957313</v>
+        <v>27.8315415107047</v>
       </c>
       <c r="C23">
-        <v>24.93148316411573</v>
+        <v>18.95842889753701</v>
       </c>
       <c r="D23">
-        <v>5.454355911441609</v>
+        <v>8.787227963474955</v>
       </c>
       <c r="E23">
-        <v>11.75990266241348</v>
+        <v>13.28170549474956</v>
       </c>
       <c r="F23">
-        <v>44.5351254329626</v>
+        <v>28.64293059735014</v>
       </c>
       <c r="G23">
-        <v>2.018304480304719</v>
+        <v>2.040175781714435</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.443755389168406</v>
+        <v>7.070574171158199</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.29891532462598</v>
+        <v>10.94298558915349</v>
       </c>
       <c r="O23">
-        <v>31.13221288994409</v>
+        <v>18.71143229869663</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.19179999027627</v>
+        <v>25.72722629560012</v>
       </c>
       <c r="C24">
-        <v>22.89075162819358</v>
+        <v>17.57681435866532</v>
       </c>
       <c r="D24">
-        <v>5.172662735865379</v>
+        <v>8.274342217370897</v>
       </c>
       <c r="E24">
-        <v>11.0500566565362</v>
+        <v>12.4900787945067</v>
       </c>
       <c r="F24">
-        <v>41.6297251176482</v>
+        <v>27.10522326765532</v>
       </c>
       <c r="G24">
-        <v>2.037715139077674</v>
+        <v>2.050507769855872</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.152435690906418</v>
+        <v>6.818506138220591</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.85158455310678</v>
+        <v>11.15741833582467</v>
       </c>
       <c r="O24">
-        <v>29.23141483151784</v>
+        <v>17.92133440010194</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.01722279319371</v>
+        <v>23.27101445058902</v>
       </c>
       <c r="C25">
-        <v>20.55449212875899</v>
+        <v>15.96440343774861</v>
       </c>
       <c r="D25">
-        <v>4.860261589295294</v>
+        <v>7.697998952465346</v>
       </c>
       <c r="E25">
-        <v>10.27699308406176</v>
+        <v>11.61037542111823</v>
       </c>
       <c r="F25">
-        <v>38.54535999049256</v>
+        <v>25.4780664997671</v>
       </c>
       <c r="G25">
-        <v>2.058796523564121</v>
+        <v>2.06197302422844</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.855785022572507</v>
+        <v>6.555556142162006</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.44557341365273</v>
+        <v>11.40470052024792</v>
       </c>
       <c r="O25">
-        <v>27.24871880091171</v>
+        <v>17.1274033877561</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.29825819418657</v>
+        <v>19.79611835820667</v>
       </c>
       <c r="C2">
-        <v>14.67029997986084</v>
+        <v>14.17767610551369</v>
       </c>
       <c r="D2">
-        <v>7.255855573924529</v>
+        <v>8.883753226387901</v>
       </c>
       <c r="E2">
-        <v>10.94359949895674</v>
+        <v>13.06157687391796</v>
       </c>
       <c r="F2">
-        <v>24.31254685450186</v>
+        <v>21.25816362441338</v>
       </c>
       <c r="G2">
-        <v>2.070732996809663</v>
+        <v>21.82833999735077</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.438454351171091</v>
       </c>
       <c r="J2">
-        <v>6.370152244932494</v>
+        <v>8.300726298240233</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.9379644186644</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.601113530924769</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.59970368416773</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>16.59309599656901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>11.93917151997878</v>
+      </c>
+      <c r="Q2">
+        <v>13.6677477828271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.85693696872408</v>
+        <v>18.51689707804268</v>
       </c>
       <c r="C3">
-        <v>13.72584812413695</v>
+        <v>13.294817286318</v>
       </c>
       <c r="D3">
-        <v>6.946572834078729</v>
+        <v>8.514385863757369</v>
       </c>
       <c r="E3">
-        <v>10.48205352837563</v>
+        <v>12.52180444428869</v>
       </c>
       <c r="F3">
-        <v>23.54637279343334</v>
+        <v>20.64292358507001</v>
       </c>
       <c r="G3">
-        <v>2.0768874701919</v>
+        <v>21.03811680297378</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.218524962536716</v>
       </c>
       <c r="J3">
-        <v>6.249913478039235</v>
+        <v>8.267938365426231</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.078452761477</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.400527098554506</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.73960201261923</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>16.26225168450779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>11.94426565632867</v>
+      </c>
+      <c r="Q3">
+        <v>13.45670443937476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.91987460438813</v>
+        <v>17.68384782235535</v>
       </c>
       <c r="C4">
-        <v>13.11251562420384</v>
+        <v>12.72105897437402</v>
       </c>
       <c r="D4">
-        <v>6.752536388211486</v>
+        <v>8.279766602632867</v>
       </c>
       <c r="E4">
-        <v>10.19483791288564</v>
+        <v>12.17808091984971</v>
       </c>
       <c r="F4">
-        <v>23.08889669017823</v>
+        <v>20.26678677276056</v>
       </c>
       <c r="G4">
-        <v>2.080779631713158</v>
+        <v>20.5558144648241</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.07844322114803</v>
       </c>
       <c r="J4">
-        <v>6.178855341097096</v>
+        <v>8.252015271043769</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.17285453421938</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.273939065060758</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.82923229645132</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>16.07441529594741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>11.95035828578215</v>
+      </c>
+      <c r="Q4">
+        <v>13.33457427896297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.52483064858136</v>
+        <v>17.33238613284568</v>
       </c>
       <c r="C5">
-        <v>12.85415431329338</v>
+        <v>12.47931308202446</v>
       </c>
       <c r="D5">
-        <v>6.672533652125861</v>
+        <v>8.182292139353288</v>
       </c>
       <c r="E5">
-        <v>10.07699829207591</v>
+        <v>12.03504018954555</v>
       </c>
       <c r="F5">
-        <v>22.90592769983499</v>
+        <v>20.11410377345445</v>
       </c>
       <c r="G5">
-        <v>2.08239501978583</v>
+        <v>20.36027993148905</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.02007322006701</v>
       </c>
       <c r="J5">
-        <v>6.150609723749625</v>
+        <v>8.246558908221854</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.21328184487322</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.221526362726155</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.86668445225849</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>16.00169022546405</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>11.95357250301392</v>
+      </c>
+      <c r="Q5">
+        <v>13.28668145551163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.45843516424259</v>
+        <v>17.27330183246131</v>
       </c>
       <c r="C6">
-        <v>12.81074459226954</v>
+        <v>12.43869332584141</v>
       </c>
       <c r="D6">
-        <v>6.659196462129667</v>
+        <v>8.165997203339499</v>
       </c>
       <c r="E6">
-        <v>10.05738818685453</v>
+        <v>12.01111289898273</v>
       </c>
       <c r="F6">
-        <v>22.87576033513061</v>
+        <v>20.08879247453319</v>
       </c>
       <c r="G6">
-        <v>2.082665046452617</v>
+        <v>20.32788085599661</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.010302789410121</v>
       </c>
       <c r="J6">
-        <v>6.145962921189128</v>
+        <v>8.245714461722608</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.2201105119781</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.212774392725326</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.87295904732061</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>15.98984387210775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>11.95414999271582</v>
+      </c>
+      <c r="Q6">
+        <v>13.27884216299208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.91460039590025</v>
+        <v>17.67915644091855</v>
       </c>
       <c r="C7">
-        <v>13.10906539315818</v>
+        <v>12.71783078036245</v>
       </c>
       <c r="D7">
-        <v>6.751461060214995</v>
+        <v>8.278459434052412</v>
       </c>
       <c r="E7">
-        <v>10.19325168079859</v>
+        <v>12.17616367546078</v>
       </c>
       <c r="F7">
-        <v>23.0864148516096</v>
+        <v>20.26472497114306</v>
       </c>
       <c r="G7">
-        <v>2.080801297717209</v>
+        <v>20.55317295877569</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.077661250425225</v>
       </c>
       <c r="J7">
-        <v>6.178471512676666</v>
+        <v>8.251937539351243</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.17339193785524</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.273235509747467</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.82973364936093</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>16.07341908220269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>11.95039869067028</v>
+      </c>
+      <c r="Q7">
+        <v>13.33392078394513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.81204846437233</v>
+        <v>19.36490975015159</v>
       </c>
       <c r="C8">
-        <v>14.35158005525482</v>
+        <v>13.87985594190541</v>
       </c>
       <c r="D8">
-        <v>7.150134005780759</v>
+        <v>8.758077063841272</v>
       </c>
       <c r="E8">
-        <v>10.78534480057608</v>
+        <v>12.87808458264734</v>
       </c>
       <c r="F8">
-        <v>24.04579900190038</v>
+        <v>21.04580225863042</v>
       </c>
       <c r="G8">
-        <v>2.07283204863323</v>
+        <v>21.55543193087142</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.363659120923088</v>
       </c>
       <c r="J8">
-        <v>6.328128462010532</v>
+        <v>8.288532202768254</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.98465950220836</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.532682562073104</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.64715863970987</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>16.47583184992401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>11.94030401615834</v>
+      </c>
+      <c r="Q8">
+        <v>13.59343676704239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.12365027381585</v>
+        <v>22.29414407584213</v>
       </c>
       <c r="C9">
-        <v>16.52403754500237</v>
+        <v>15.90651557687382</v>
       </c>
       <c r="D9">
-        <v>7.895067249500111</v>
+        <v>9.632681594392221</v>
       </c>
       <c r="E9">
-        <v>11.90991294494926</v>
+        <v>14.15243030781514</v>
       </c>
       <c r="F9">
-        <v>26.02153316791786</v>
+        <v>22.58258029052692</v>
       </c>
       <c r="G9">
-        <v>2.058064214650282</v>
+        <v>23.53253552009002</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.885283325608836</v>
       </c>
       <c r="J9">
-        <v>6.64289413903665</v>
+        <v>8.394796917178942</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10.68346248582305</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.012894640793997</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.31934572508923</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>17.38703643713416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.94468871382284</v>
+      </c>
+      <c r="Q9">
+        <v>14.16110694345341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.31286194398708</v>
+        <v>24.18391523012051</v>
       </c>
       <c r="C10">
-        <v>17.96133058340591</v>
+        <v>17.19200311426279</v>
       </c>
       <c r="D10">
-        <v>8.415448057370893</v>
+        <v>10.13448793689676</v>
       </c>
       <c r="E10">
-        <v>12.70708931812574</v>
+        <v>14.79696296289786</v>
       </c>
       <c r="F10">
-        <v>27.52032467209907</v>
+        <v>23.54705336401704</v>
       </c>
       <c r="G10">
-        <v>2.047680319882213</v>
+        <v>24.81816830639453</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>3.229846787269025</v>
       </c>
       <c r="J10">
-        <v>6.886240258751493</v>
+        <v>8.467338458436764</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10.47520431871186</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.240731942402331</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.09791441762658</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>18.13120347262818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.97989466158388</v>
+      </c>
+      <c r="Q10">
+        <v>14.54269824745938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.25713444601675</v>
+        <v>24.69787210146995</v>
       </c>
       <c r="C11">
-        <v>18.58131223157303</v>
+        <v>17.32068399260837</v>
       </c>
       <c r="D11">
-        <v>8.645654290677014</v>
+        <v>9.529139550792141</v>
       </c>
       <c r="E11">
-        <v>13.06241615935669</v>
+        <v>13.18786480026496</v>
       </c>
       <c r="F11">
-        <v>28.21063036451599</v>
+        <v>22.61602126768013</v>
       </c>
       <c r="G11">
-        <v>2.043043704952248</v>
+        <v>24.01407592647939</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.828517487789841</v>
       </c>
       <c r="J11">
-        <v>6.999399788861334</v>
+        <v>8.260378224343583</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10.08344590440118</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.480259808718512</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.00166787206178</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>18.48591845061824</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.14671050979379</v>
+      </c>
+      <c r="Q11">
+        <v>14.10980260197498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.607393307628</v>
+        <v>24.74611471148962</v>
       </c>
       <c r="C12">
-        <v>18.8112713055688</v>
+        <v>17.16584868889123</v>
       </c>
       <c r="D12">
-        <v>8.731848464175036</v>
+        <v>8.912757236129117</v>
       </c>
       <c r="E12">
-        <v>13.19585742325923</v>
+        <v>11.75204908756104</v>
       </c>
       <c r="F12">
-        <v>28.47313760543145</v>
+        <v>21.60631868370954</v>
       </c>
       <c r="G12">
-        <v>2.04129921843724</v>
+        <v>23.04143003930023</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.836414297582052</v>
       </c>
       <c r="J12">
-        <v>7.042592043179775</v>
+        <v>8.064040235475103</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>9.791389674259277</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.873722745096966</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.96589428246108</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>18.62256125853159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.28562427118009</v>
+      </c>
+      <c r="Q12">
+        <v>13.64996593754421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.53228248200869</v>
+        <v>24.44146497671557</v>
       </c>
       <c r="C13">
-        <v>18.76195872758499</v>
+        <v>16.7793965973482</v>
       </c>
       <c r="D13">
-        <v>8.713329157198171</v>
+        <v>8.238887896115308</v>
       </c>
       <c r="E13">
-        <v>13.16716876571043</v>
+        <v>10.36511363630527</v>
       </c>
       <c r="F13">
-        <v>28.41655445896437</v>
+        <v>20.45507294241229</v>
       </c>
       <c r="G13">
-        <v>2.041674442781834</v>
+        <v>21.85136450461659</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.993818653554964</v>
       </c>
       <c r="J13">
-        <v>7.033274815195213</v>
+        <v>7.862825978525673</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>9.560297760688298</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.366671286485418</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.97356834603051</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.59302968996565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.40765349217084</v>
+      </c>
+      <c r="Q13">
+        <v>13.13446836126199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.2860964716798</v>
+        <v>24.06427983130595</v>
       </c>
       <c r="C14">
-        <v>18.60032726953541</v>
+        <v>16.39887276660428</v>
       </c>
       <c r="D14">
-        <v>8.652765383520416</v>
+        <v>7.738072210065551</v>
       </c>
       <c r="E14">
-        <v>13.07341705430308</v>
+        <v>9.447941034798127</v>
       </c>
       <c r="F14">
-        <v>28.23220544875792</v>
+        <v>19.5779281324927</v>
       </c>
       <c r="G14">
-        <v>2.042899965888897</v>
+        <v>20.9073005183553</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.859155665738635</v>
       </c>
       <c r="J14">
-        <v>7.002946466091958</v>
+        <v>7.720195071893503</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>9.429474910480996</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.086412822980295</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.99871109580655</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>18.49711367381007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.48494441804893</v>
+      </c>
+      <c r="Q14">
+        <v>12.74699866188248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.13435078458784</v>
+        <v>23.89536990557042</v>
       </c>
       <c r="C15">
-        <v>18.50069801099489</v>
+        <v>16.25508893974142</v>
       </c>
       <c r="D15">
-        <v>8.615539620867935</v>
+        <v>7.603056501268497</v>
       </c>
       <c r="E15">
-        <v>13.01584491476757</v>
+        <v>9.228978279096173</v>
       </c>
       <c r="F15">
-        <v>28.11942706019721</v>
+        <v>19.33584637670219</v>
       </c>
       <c r="G15">
-        <v>2.043652067745571</v>
+        <v>20.63148474011802</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.056749984777855</v>
       </c>
       <c r="J15">
-        <v>6.98441358214809</v>
+        <v>7.685462674566403</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>9.411982957579619</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.028391069561779</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.01420029107341</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>18.43866429425895</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.49900603473735</v>
+      </c>
+      <c r="Q15">
+        <v>12.64257733790137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.25012183667562</v>
+        <v>23.16348666193663</v>
       </c>
       <c r="C16">
-        <v>17.92013658584324</v>
+        <v>15.77818000350773</v>
       </c>
       <c r="D16">
-        <v>8.400268492920542</v>
+        <v>7.495591855448981</v>
       </c>
       <c r="E16">
-        <v>12.68371503163618</v>
+        <v>9.176866429096428</v>
       </c>
       <c r="F16">
-        <v>27.4753717560163</v>
+        <v>19.11259913485786</v>
       </c>
       <c r="G16">
-        <v>2.047984983362136</v>
+        <v>20.25440552441011</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.780780799386096</v>
       </c>
       <c r="J16">
-        <v>6.878893389324723</v>
+        <v>7.692714211333174</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>9.551173431580992</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.020943682772955</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.10429689263888</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>18.1083470228663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.44926160690093</v>
+      </c>
+      <c r="Q16">
+        <v>12.56831378084604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.6945304487358</v>
+        <v>22.80031815131692</v>
       </c>
       <c r="C17">
-        <v>17.55534714964815</v>
+        <v>15.61718181048807</v>
       </c>
       <c r="D17">
-        <v>8.266503508839605</v>
+        <v>7.685747353761387</v>
       </c>
       <c r="E17">
-        <v>12.47804144221292</v>
+        <v>9.614960955608939</v>
       </c>
       <c r="F17">
-        <v>27.08234750632743</v>
+        <v>19.42086048044217</v>
       </c>
       <c r="G17">
-        <v>2.050664547684606</v>
+        <v>20.48826699670516</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.059732268058851</v>
       </c>
       <c r="J17">
-        <v>6.814780547408213</v>
+        <v>7.775056381598325</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>9.726225492123033</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.150327465618019</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.16073538397178</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>17.90984794711922</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.37144824903766</v>
+      </c>
+      <c r="Q17">
+        <v>12.72231021048965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.37010457425231</v>
+        <v>22.72490471847642</v>
       </c>
       <c r="C18">
-        <v>17.34234025124083</v>
+        <v>15.71811499141074</v>
       </c>
       <c r="D18">
-        <v>8.188953806437018</v>
+        <v>8.160812377465785</v>
       </c>
       <c r="E18">
-        <v>12.35905763971156</v>
+        <v>10.61364537892093</v>
       </c>
       <c r="F18">
-        <v>26.85709554648269</v>
+        <v>20.2159508680163</v>
       </c>
       <c r="G18">
-        <v>2.052214036242184</v>
+        <v>21.26569652583168</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.934642482794546</v>
       </c>
       <c r="J18">
-        <v>6.778136715185824</v>
+        <v>7.928816711587523</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>9.950905307631508</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.48790796173559</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.19361741922258</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>17.79720079809971</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.26214182776932</v>
+      </c>
+      <c r="Q18">
+        <v>13.08439592343105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.2594209599499</v>
+        <v>22.88803211843028</v>
       </c>
       <c r="C19">
-        <v>17.26967041992172</v>
+        <v>16.02164431997256</v>
       </c>
       <c r="D19">
-        <v>8.1625932400928</v>
+        <v>8.833206794507586</v>
       </c>
       <c r="E19">
-        <v>12.31865616160228</v>
+        <v>12.07575446749365</v>
       </c>
       <c r="F19">
-        <v>26.78097149417018</v>
+        <v>21.3342657170155</v>
       </c>
       <c r="G19">
-        <v>2.052740123223719</v>
+        <v>22.40486034448496</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.771781297307097</v>
       </c>
       <c r="J19">
-        <v>6.765770044116147</v>
+        <v>8.127485013730821</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>10.2024125017489</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.060166351452714</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.20482207285659</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>17.75932250124592</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.13760754324805</v>
+      </c>
+      <c r="Q19">
+        <v>13.58231865499253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.75417680229357</v>
+        <v>23.70102774302522</v>
       </c>
       <c r="C20">
-        <v>17.59450935861528</v>
+        <v>16.86211479030363</v>
       </c>
       <c r="D20">
-        <v>8.280806663433102</v>
+        <v>10.00090840713526</v>
       </c>
       <c r="E20">
-        <v>12.50000722863746</v>
+        <v>14.62081925818834</v>
       </c>
       <c r="F20">
-        <v>27.12410322844357</v>
+        <v>23.28690484012631</v>
       </c>
       <c r="G20">
-        <v>2.0503784557081</v>
+        <v>24.47343251915526</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>3.139022888879216</v>
       </c>
       <c r="J20">
-        <v>6.821581538505153</v>
+        <v>8.445512224566553</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>10.52492437420753</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.177048948833772</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.1546837396292</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>17.93082082637775</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.97013745150628</v>
+      </c>
+      <c r="Q20">
+        <v>14.43694733803482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.35860498201472</v>
+        <v>25.13419129839093</v>
       </c>
       <c r="C21">
-        <v>18.64793256110145</v>
+        <v>17.87735047933731</v>
       </c>
       <c r="D21">
-        <v>8.670581314915529</v>
+        <v>10.52085255796804</v>
       </c>
       <c r="E21">
-        <v>13.10098482196991</v>
+        <v>15.44250723670728</v>
       </c>
       <c r="F21">
-        <v>28.28632406760679</v>
+        <v>24.26799535013575</v>
       </c>
       <c r="G21">
-        <v>2.042539703608508</v>
+        <v>25.7041576733986</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>3.422373662782653</v>
       </c>
       <c r="J21">
-        <v>7.011845464431741</v>
+        <v>8.551989627473962</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>10.4371016283902</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.510079252295668</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.99130755405494</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>18.52522361506246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.97725847750437</v>
+      </c>
+      <c r="Q21">
+        <v>14.84981690253224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.3645968007907</v>
+        <v>26.01215236565897</v>
       </c>
       <c r="C22">
-        <v>19.30837133950716</v>
+        <v>18.48738205505183</v>
       </c>
       <c r="D22">
-        <v>8.919597304604794</v>
+        <v>10.80205823442688</v>
       </c>
       <c r="E22">
-        <v>13.48725317699134</v>
+        <v>15.85054268441896</v>
       </c>
       <c r="F22">
-        <v>29.05230164885852</v>
+        <v>24.82445688716964</v>
       </c>
       <c r="G22">
-        <v>2.037481847023032</v>
+        <v>26.42163210794026</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>3.594917694040975</v>
       </c>
       <c r="J22">
-        <v>7.138178883227727</v>
+        <v>8.611758114104441</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>10.37271986089152</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.669444778401052</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.88846997161662</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>18.92722247666022</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.99329894259334</v>
+      </c>
+      <c r="Q22">
+        <v>15.08956846358754</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.8315415107047</v>
+        <v>25.54727268490698</v>
       </c>
       <c r="C23">
-        <v>18.95842889753701</v>
+        <v>18.16433407918053</v>
       </c>
       <c r="D23">
-        <v>8.787227963474955</v>
+        <v>10.65280236446064</v>
       </c>
       <c r="E23">
-        <v>13.28170549474956</v>
+        <v>15.63398472377831</v>
       </c>
       <c r="F23">
-        <v>28.64293059735014</v>
+        <v>24.52781620821575</v>
       </c>
       <c r="G23">
-        <v>2.040175781714435</v>
+        <v>26.03912837835627</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>3.503164885938528</v>
       </c>
       <c r="J23">
-        <v>7.070574171158199</v>
+        <v>8.579443442942654</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>10.40603331006849</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.584743628407226</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.94298558915349</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>18.71143229869663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.98444435432329</v>
+      </c>
+      <c r="Q23">
+        <v>14.96106336419302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.72722629560012</v>
+        <v>23.70497516331013</v>
       </c>
       <c r="C24">
-        <v>17.57681435866532</v>
+        <v>16.8850042456059</v>
       </c>
       <c r="D24">
-        <v>8.274342217370897</v>
+        <v>10.06953255309838</v>
       </c>
       <c r="E24">
-        <v>12.4900787945067</v>
+        <v>14.78728594475478</v>
       </c>
       <c r="F24">
-        <v>27.10522326765532</v>
+        <v>23.39724651543571</v>
       </c>
       <c r="G24">
-        <v>2.050507769855872</v>
+        <v>24.58192604410979</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>3.148126815998094</v>
       </c>
       <c r="J24">
-        <v>6.818506138220591</v>
+        <v>8.466058243583765</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>10.55441443069534</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.256251983724434</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.15741833582467</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>17.92133440010194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.9572519070245</v>
+      </c>
+      <c r="Q24">
+        <v>14.48648477792332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.27101445058902</v>
+        <v>21.54182265222479</v>
       </c>
       <c r="C25">
-        <v>15.96440343774861</v>
+        <v>15.38528862812657</v>
       </c>
       <c r="D25">
-        <v>7.697998952465346</v>
+        <v>9.403618327529244</v>
       </c>
       <c r="E25">
-        <v>11.61037542111823</v>
+        <v>13.81918378175978</v>
       </c>
       <c r="F25">
-        <v>25.4780664997671</v>
+        <v>22.167335871181</v>
       </c>
       <c r="G25">
-        <v>2.06197302422844</v>
+        <v>22.99791558435884</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.748250465236818</v>
       </c>
       <c r="J25">
-        <v>6.555556142162006</v>
+        <v>8.362202553018713</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.75693482732341</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.886220301518164</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.40470052024792</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>17.1274033877561</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.94081896360828</v>
+      </c>
+      <c r="Q25">
+        <v>14.00131044582822</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.79611835820667</v>
+        <v>19.59941165246885</v>
       </c>
       <c r="C2">
-        <v>14.17767610551369</v>
+        <v>14.53481855611693</v>
       </c>
       <c r="D2">
-        <v>8.883753226387901</v>
+        <v>8.904017205680843</v>
       </c>
       <c r="E2">
-        <v>13.06157687391796</v>
+        <v>13.0426178091999</v>
       </c>
       <c r="F2">
-        <v>21.25816362441338</v>
+        <v>21.09687088078666</v>
       </c>
       <c r="G2">
-        <v>21.82833999735077</v>
+        <v>20.87168655151858</v>
       </c>
       <c r="H2">
-        <v>2.438454351171091</v>
+        <v>2.396837845399664</v>
       </c>
       <c r="J2">
-        <v>8.300726298240233</v>
+        <v>8.884848221033645</v>
       </c>
       <c r="K2">
-        <v>10.9379644186644</v>
+        <v>10.83362605099095</v>
       </c>
       <c r="L2">
-        <v>7.601113530924769</v>
+        <v>10.4481498925793</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.63766411696212</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.577199237863248</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>11.93917151997878</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>13.6677477828271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.02156449051545</v>
+      </c>
+      <c r="S2">
+        <v>13.56700824844783</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.51689707804268</v>
+        <v>18.36503747128017</v>
       </c>
       <c r="C3">
-        <v>13.294817286318</v>
+        <v>13.56344190849578</v>
       </c>
       <c r="D3">
-        <v>8.514385863757369</v>
+        <v>8.530098536633194</v>
       </c>
       <c r="E3">
-        <v>12.52180444428869</v>
+        <v>12.5069479536704</v>
       </c>
       <c r="F3">
-        <v>20.64292358507001</v>
+        <v>20.52061263914206</v>
       </c>
       <c r="G3">
-        <v>21.03811680297378</v>
+        <v>20.13178583397791</v>
       </c>
       <c r="H3">
-        <v>2.218524962536716</v>
+        <v>2.186817185987513</v>
       </c>
       <c r="J3">
-        <v>8.267938365426231</v>
+        <v>8.835806623807123</v>
       </c>
       <c r="K3">
-        <v>11.078452761477</v>
+        <v>10.98352047873682</v>
       </c>
       <c r="L3">
-        <v>7.400527098554506</v>
+        <v>10.63668560664305</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.660395375761745</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.3820181658952</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>11.94426565632867</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.45670443937476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>11.9997389584433</v>
+      </c>
+      <c r="S3">
+        <v>13.38213486422299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.68384782235535</v>
+        <v>17.56109334366852</v>
       </c>
       <c r="C4">
-        <v>12.72105897437402</v>
+        <v>12.93159740611482</v>
       </c>
       <c r="D4">
-        <v>8.279766602632867</v>
+        <v>8.292838854130945</v>
       </c>
       <c r="E4">
-        <v>12.17808091984971</v>
+        <v>12.16605445374725</v>
       </c>
       <c r="F4">
-        <v>20.26678677276056</v>
+        <v>20.16752196311741</v>
       </c>
       <c r="G4">
-        <v>20.5558144648241</v>
+        <v>19.68141305157274</v>
       </c>
       <c r="H4">
-        <v>2.07844322114803</v>
+        <v>2.052974870072701</v>
       </c>
       <c r="J4">
-        <v>8.252015271043769</v>
+        <v>8.807563421772446</v>
       </c>
       <c r="K4">
-        <v>11.17285453421938</v>
+        <v>11.08177281594539</v>
       </c>
       <c r="L4">
-        <v>7.273939065060758</v>
+        <v>10.75789355528265</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5.70403758082688</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.258890001352396</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>11.95035828578215</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.33457427896297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>11.98946612100436</v>
+      </c>
+      <c r="S4">
+        <v>13.27472621102524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.33238613284568</v>
+        <v>17.22189683955483</v>
       </c>
       <c r="C5">
-        <v>12.47931308202446</v>
+        <v>12.66523344051237</v>
       </c>
       <c r="D5">
-        <v>8.182292139353288</v>
+        <v>8.194336773233893</v>
       </c>
       <c r="E5">
-        <v>12.03504018954555</v>
+        <v>12.02425158718447</v>
       </c>
       <c r="F5">
-        <v>20.11410377345445</v>
+        <v>20.02397741559291</v>
       </c>
       <c r="G5">
-        <v>20.36027993148905</v>
+        <v>19.49910171161599</v>
       </c>
       <c r="H5">
-        <v>2.02007322006701</v>
+        <v>1.997188271272136</v>
       </c>
       <c r="J5">
-        <v>8.246558908221854</v>
+        <v>8.796517325031951</v>
       </c>
       <c r="K5">
-        <v>11.21328184487322</v>
+        <v>11.12331460203992</v>
       </c>
       <c r="L5">
-        <v>7.221526362726155</v>
+        <v>10.80867036433519</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5.729041441044535</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.207922676233075</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>11.95357250301392</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.28668145551163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>11.98605812649715</v>
+      </c>
+      <c r="S5">
+        <v>13.2324841587155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.27330183246131</v>
+        <v>17.16487391646904</v>
       </c>
       <c r="C6">
-        <v>12.43869332584141</v>
+        <v>12.62046841144029</v>
       </c>
       <c r="D6">
-        <v>8.165997203339499</v>
+        <v>8.177874426629854</v>
       </c>
       <c r="E6">
-        <v>12.01111289898273</v>
+        <v>12.00053514654177</v>
       </c>
       <c r="F6">
-        <v>20.08879247453319</v>
+        <v>20.00016737717539</v>
       </c>
       <c r="G6">
-        <v>20.32788085599661</v>
+        <v>19.46890961345386</v>
       </c>
       <c r="H6">
-        <v>2.010302789410121</v>
+        <v>1.987849324230267</v>
       </c>
       <c r="J6">
-        <v>8.245714461722608</v>
+        <v>8.794710906352925</v>
       </c>
       <c r="K6">
-        <v>11.2201105119781</v>
+        <v>11.13030170089209</v>
       </c>
       <c r="L6">
-        <v>7.212774392725326</v>
+        <v>10.81718578962215</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5.733620704286459</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.199412848217915</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>11.95414999271582</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.27884216299208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>11.98553899193877</v>
+      </c>
+      <c r="S6">
+        <v>13.22556188215432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.67915644091855</v>
+        <v>17.55113185851403</v>
       </c>
       <c r="C7">
-        <v>12.71783078036245</v>
+        <v>12.91841506341616</v>
       </c>
       <c r="D7">
-        <v>8.278459434052412</v>
+        <v>8.294338179125631</v>
       </c>
       <c r="E7">
-        <v>12.17616367546078</v>
+        <v>12.16503259349441</v>
       </c>
       <c r="F7">
-        <v>20.26472497114306</v>
+        <v>20.15256670505105</v>
       </c>
       <c r="G7">
-        <v>20.55317295877569</v>
+        <v>19.77928905377276</v>
       </c>
       <c r="H7">
-        <v>2.077661250425225</v>
+        <v>2.051690862814544</v>
       </c>
       <c r="J7">
-        <v>8.251937539351243</v>
+        <v>8.766042913764426</v>
       </c>
       <c r="K7">
-        <v>11.17339193785524</v>
+        <v>11.07807187505942</v>
       </c>
       <c r="L7">
-        <v>7.273235509747467</v>
+        <v>10.7546142519356</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.701913973852495</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.257659191541323</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>11.95039869067028</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.33392078394513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>11.99111509012217</v>
+      </c>
+      <c r="S7">
+        <v>13.2642207872689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.36490975015159</v>
+        <v>19.16667628351886</v>
       </c>
       <c r="C8">
-        <v>13.87985594190541</v>
+        <v>14.17767331296977</v>
       </c>
       <c r="D8">
-        <v>8.758077063841272</v>
+        <v>8.785714103620391</v>
       </c>
       <c r="E8">
-        <v>12.87808458264734</v>
+        <v>12.86335092905329</v>
       </c>
       <c r="F8">
-        <v>21.04580225863042</v>
+        <v>20.85630883399479</v>
       </c>
       <c r="G8">
-        <v>21.55543193087142</v>
+        <v>20.9353637093845</v>
       </c>
       <c r="H8">
-        <v>2.363659120923088</v>
+        <v>2.323771173760226</v>
       </c>
       <c r="J8">
-        <v>8.288532202768254</v>
+        <v>8.732547737945554</v>
       </c>
       <c r="K8">
-        <v>10.98465950220836</v>
+        <v>10.86985774671575</v>
       </c>
       <c r="L8">
-        <v>7.532682562073104</v>
+        <v>10.50027822227749</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.628779182828872</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.508898253917999</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>11.94030401615834</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>13.59343676704239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.01928941402231</v>
+      </c>
+      <c r="S8">
+        <v>13.46958791045823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.29414407584213</v>
+        <v>21.99018381720357</v>
       </c>
       <c r="C9">
-        <v>15.90651557687382</v>
+        <v>16.40102746390113</v>
       </c>
       <c r="D9">
-        <v>9.632681594392221</v>
+        <v>9.673766991126429</v>
       </c>
       <c r="E9">
-        <v>14.15243030781514</v>
+        <v>14.12954453101577</v>
       </c>
       <c r="F9">
-        <v>22.58258029052692</v>
+        <v>22.28378642889809</v>
       </c>
       <c r="G9">
-        <v>23.53253552009002</v>
+        <v>22.85000355243216</v>
       </c>
       <c r="H9">
-        <v>2.885283325608836</v>
+        <v>2.821198278881929</v>
       </c>
       <c r="J9">
-        <v>8.394796917178942</v>
+        <v>8.830691488895077</v>
       </c>
       <c r="K9">
-        <v>10.68346248582305</v>
+        <v>10.52916420932405</v>
       </c>
       <c r="L9">
-        <v>8.012894640793997</v>
+        <v>10.05863824539656</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.73604771077775</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.976123056905196</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>11.94468871382284</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.16110694345341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.09355089583681</v>
+      </c>
+      <c r="S9">
+        <v>13.95749929495729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.18391523012051</v>
+        <v>23.78814014289537</v>
       </c>
       <c r="C10">
-        <v>17.19200311426279</v>
+        <v>17.76432906596314</v>
       </c>
       <c r="D10">
-        <v>10.13448793689676</v>
+        <v>10.1980692364179</v>
       </c>
       <c r="E10">
-        <v>14.79696296289786</v>
+        <v>14.77276491314825</v>
       </c>
       <c r="F10">
-        <v>23.54705336401704</v>
+        <v>23.10537797109779</v>
       </c>
       <c r="G10">
-        <v>24.81816830639453</v>
+        <v>24.59065385825607</v>
       </c>
       <c r="H10">
-        <v>3.229846787269025</v>
+        <v>3.146703198912276</v>
       </c>
       <c r="J10">
-        <v>8.467338458436764</v>
+        <v>8.663021696525597</v>
       </c>
       <c r="K10">
-        <v>10.47520431871186</v>
+        <v>10.2602091287475</v>
       </c>
       <c r="L10">
-        <v>8.240731942402331</v>
+        <v>9.72541090585414</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.907063761804944</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.192677808285435</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>11.97989466158388</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.54269824745938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.19069477029058</v>
+      </c>
+      <c r="S10">
+        <v>14.22607961798517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.69787210146995</v>
+        <v>24.24782034368073</v>
       </c>
       <c r="C11">
-        <v>17.32068399260837</v>
+        <v>17.79749317348292</v>
       </c>
       <c r="D11">
-        <v>9.529139550792141</v>
+        <v>9.614186254054175</v>
       </c>
       <c r="E11">
-        <v>13.18786480026496</v>
+        <v>13.16033495844648</v>
       </c>
       <c r="F11">
-        <v>22.61602126768013</v>
+        <v>22.04533557234265</v>
       </c>
       <c r="G11">
-        <v>24.01407592647939</v>
+        <v>24.878013334757</v>
       </c>
       <c r="H11">
-        <v>3.828517487789841</v>
+        <v>3.751337113230265</v>
       </c>
       <c r="J11">
-        <v>8.260378224343583</v>
+        <v>8.034148275038005</v>
       </c>
       <c r="K11">
-        <v>10.08344590440118</v>
+        <v>9.848831693948908</v>
       </c>
       <c r="L11">
-        <v>7.480259808718512</v>
+        <v>9.40856952244004</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.693646366748694</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.424494685469278</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.14671050979379</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.10980260197498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.39814435800246</v>
+      </c>
+      <c r="S11">
+        <v>13.68928458842662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.74611471148962</v>
+        <v>24.28362607751611</v>
       </c>
       <c r="C12">
-        <v>17.16584868889123</v>
+        <v>17.57194690105541</v>
       </c>
       <c r="D12">
-        <v>8.912757236129117</v>
+        <v>9.001253516614712</v>
       </c>
       <c r="E12">
-        <v>11.75204908756104</v>
+        <v>11.71555332043287</v>
       </c>
       <c r="F12">
-        <v>21.60631868370954</v>
+        <v>20.99972054112949</v>
       </c>
       <c r="G12">
-        <v>23.04143003930023</v>
+        <v>24.43667252207955</v>
       </c>
       <c r="H12">
-        <v>4.836414297582052</v>
+        <v>4.77489107227685</v>
       </c>
       <c r="J12">
-        <v>8.064040235475103</v>
+        <v>7.694509199516192</v>
       </c>
       <c r="K12">
-        <v>9.791389674259277</v>
+        <v>9.573724628157079</v>
       </c>
       <c r="L12">
-        <v>6.873722745096966</v>
+        <v>9.229413704320564</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.475713716557317</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.815801936797768</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.28562427118009</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.64996593754421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.55122691642743</v>
+      </c>
+      <c r="S12">
+        <v>13.20095166861393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.44146497671557</v>
+        <v>24.00809536966717</v>
       </c>
       <c r="C13">
-        <v>16.7793965973482</v>
+        <v>17.14591196971665</v>
       </c>
       <c r="D13">
-        <v>8.238887896115308</v>
+        <v>8.311643077839134</v>
       </c>
       <c r="E13">
-        <v>10.36511363630527</v>
+        <v>10.31340544248546</v>
       </c>
       <c r="F13">
-        <v>20.45507294241229</v>
+        <v>19.90986828195385</v>
       </c>
       <c r="G13">
-        <v>21.85136450461659</v>
+        <v>23.16962889303113</v>
       </c>
       <c r="H13">
-        <v>5.993818653554964</v>
+        <v>5.947207871131303</v>
       </c>
       <c r="J13">
-        <v>7.862825978525673</v>
+        <v>7.59872630917345</v>
       </c>
       <c r="K13">
-        <v>9.560297760688298</v>
+        <v>9.395460719522594</v>
       </c>
       <c r="L13">
-        <v>6.366671286485418</v>
+        <v>9.1369371165234</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.253860614844815</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.311748054637352</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.40765349217084</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.13446836126199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.66112697816083</v>
+      </c>
+      <c r="S13">
+        <v>12.73586511147757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.06427983130595</v>
+        <v>23.67004475548488</v>
       </c>
       <c r="C14">
-        <v>16.39887276660428</v>
+        <v>16.7503138982217</v>
       </c>
       <c r="D14">
-        <v>7.738072210065551</v>
+        <v>7.791613444393845</v>
       </c>
       <c r="E14">
-        <v>9.447941034798127</v>
+        <v>9.383532843055603</v>
       </c>
       <c r="F14">
-        <v>19.5779281324927</v>
+        <v>19.11801997338877</v>
       </c>
       <c r="G14">
-        <v>20.9073005183553</v>
+        <v>21.90338523126497</v>
       </c>
       <c r="H14">
-        <v>6.859155665738635</v>
+        <v>6.821443266223771</v>
       </c>
       <c r="J14">
-        <v>7.720195071893503</v>
+        <v>7.626640608484096</v>
       </c>
       <c r="K14">
-        <v>9.429474910480996</v>
+        <v>9.314264180559464</v>
       </c>
       <c r="L14">
-        <v>6.086412822980295</v>
+        <v>9.106893360495635</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.10070025875093</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.035886935103718</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.48494441804893</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.74699866188248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.71785122016745</v>
+      </c>
+      <c r="S14">
+        <v>12.41744983592277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.89536990557042</v>
+        <v>23.51894027929026</v>
       </c>
       <c r="C15">
-        <v>16.25508893974142</v>
+        <v>16.60800393079762</v>
       </c>
       <c r="D15">
-        <v>7.603056501268497</v>
+        <v>7.648718208153839</v>
       </c>
       <c r="E15">
-        <v>9.228978279096173</v>
+        <v>9.161433935183663</v>
       </c>
       <c r="F15">
-        <v>19.33584637670219</v>
+        <v>18.91453386295547</v>
       </c>
       <c r="G15">
-        <v>20.63148474011802</v>
+        <v>21.43436749775571</v>
       </c>
       <c r="H15">
-        <v>7.056749984777855</v>
+        <v>7.0214348380962</v>
       </c>
       <c r="J15">
-        <v>7.685462674566403</v>
+        <v>7.674866318517975</v>
       </c>
       <c r="K15">
-        <v>9.411982957579619</v>
+        <v>9.313926335216284</v>
       </c>
       <c r="L15">
-        <v>6.028391069561779</v>
+        <v>9.114759346166238</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.064881984430944</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.979776364971454</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.49900603473735</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.64257733790137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.72167687056959</v>
+      </c>
+      <c r="S15">
+        <v>12.34403745418399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.16348666193663</v>
+        <v>22.85830158294622</v>
       </c>
       <c r="C16">
-        <v>15.77818000350773</v>
+        <v>16.16962283104041</v>
       </c>
       <c r="D16">
-        <v>7.495591855448981</v>
+        <v>7.515521016447623</v>
       </c>
       <c r="E16">
-        <v>9.176866429096428</v>
+        <v>9.11078986254377</v>
       </c>
       <c r="F16">
-        <v>19.11259913485786</v>
+        <v>18.83955645457222</v>
       </c>
       <c r="G16">
-        <v>20.25440552441011</v>
+        <v>20.1138141104748</v>
       </c>
       <c r="H16">
-        <v>6.780780799386096</v>
+        <v>6.750264081153539</v>
       </c>
       <c r="J16">
-        <v>7.692714211333174</v>
+        <v>8.042637110896981</v>
       </c>
       <c r="K16">
-        <v>9.551173431580992</v>
+        <v>9.496127213496939</v>
       </c>
       <c r="L16">
-        <v>6.020943682772955</v>
+        <v>9.263054711502267</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.078703396296632</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.979399605701904</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.44926160690093</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.56831378084604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.62742867812036</v>
+      </c>
+      <c r="S16">
+        <v>12.38778116431521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.80031815131692</v>
+        <v>22.52235408278332</v>
       </c>
       <c r="C17">
-        <v>15.61718181048807</v>
+        <v>16.03560421300733</v>
       </c>
       <c r="D17">
-        <v>7.685747353761387</v>
+        <v>7.698979406636057</v>
       </c>
       <c r="E17">
-        <v>9.614960955608939</v>
+        <v>9.555692522096848</v>
       </c>
       <c r="F17">
-        <v>19.42086048044217</v>
+        <v>19.19956824058288</v>
       </c>
       <c r="G17">
-        <v>20.48826699670516</v>
+        <v>19.92970099256872</v>
       </c>
       <c r="H17">
-        <v>6.059732268058851</v>
+        <v>6.028816817470108</v>
       </c>
       <c r="J17">
-        <v>7.775056381598325</v>
+        <v>8.276470260139901</v>
       </c>
       <c r="K17">
-        <v>9.726225492123033</v>
+        <v>9.675191304381931</v>
       </c>
       <c r="L17">
-        <v>6.150327465618019</v>
+        <v>9.398680989713823</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.163583632870075</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.111730902754338</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.37144824903766</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.72231021048965</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.53062576136573</v>
+      </c>
+      <c r="S17">
+        <v>12.58236685423025</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.72490471847642</v>
+        <v>22.44751635640186</v>
       </c>
       <c r="C18">
-        <v>15.71811499141074</v>
+        <v>16.17273925756679</v>
       </c>
       <c r="D18">
-        <v>8.160812377465785</v>
+        <v>8.17740132771354</v>
       </c>
       <c r="E18">
-        <v>10.61364537892093</v>
+        <v>10.56405797616122</v>
       </c>
       <c r="F18">
-        <v>20.2159508680163</v>
+        <v>19.99485442066658</v>
       </c>
       <c r="G18">
-        <v>21.26569652583168</v>
+        <v>20.50947251910941</v>
       </c>
       <c r="H18">
-        <v>4.934642482794546</v>
+        <v>4.897577567156553</v>
       </c>
       <c r="J18">
-        <v>7.928816711587523</v>
+        <v>8.482765027978074</v>
       </c>
       <c r="K18">
-        <v>9.950905307631508</v>
+        <v>9.880616634320843</v>
       </c>
       <c r="L18">
-        <v>6.48790796173559</v>
+        <v>9.545397427867242</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.317677523990562</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.450031691283592</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.26214182776932</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.08439592343105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.41662288135061</v>
+      </c>
+      <c r="S18">
+        <v>12.94429122042796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.88803211843028</v>
+        <v>22.59353882469958</v>
       </c>
       <c r="C19">
-        <v>16.02164431997256</v>
+        <v>16.5235211784694</v>
       </c>
       <c r="D19">
-        <v>8.833206794507586</v>
+        <v>8.858568935251389</v>
       </c>
       <c r="E19">
-        <v>12.07575446749365</v>
+        <v>12.03612407108231</v>
       </c>
       <c r="F19">
-        <v>21.3342657170155</v>
+        <v>21.08272624873635</v>
       </c>
       <c r="G19">
-        <v>22.40486034448496</v>
+        <v>21.56368718994647</v>
       </c>
       <c r="H19">
-        <v>3.771781297307097</v>
+        <v>3.720861274551753</v>
       </c>
       <c r="J19">
-        <v>8.127485013730821</v>
+        <v>8.680005321001417</v>
       </c>
       <c r="K19">
-        <v>10.2024125017489</v>
+        <v>10.09822952003684</v>
       </c>
       <c r="L19">
-        <v>7.060166351452714</v>
+        <v>9.693343780797283</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.519105715359538</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.021637099874322</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.13760754324805</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.58231865499253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.296602080277</v>
+      </c>
+      <c r="S19">
+        <v>13.41791518196804</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.70102774302522</v>
+        <v>23.34392643409007</v>
       </c>
       <c r="C20">
-        <v>16.86211479030363</v>
+        <v>17.44114952219604</v>
       </c>
       <c r="D20">
-        <v>10.00090840713526</v>
+        <v>10.04998931703295</v>
       </c>
       <c r="E20">
-        <v>14.62081925818834</v>
+        <v>14.59400034675152</v>
       </c>
       <c r="F20">
-        <v>23.28690484012631</v>
+        <v>22.9238634167395</v>
       </c>
       <c r="G20">
-        <v>24.47343251915526</v>
+        <v>23.82404157597474</v>
       </c>
       <c r="H20">
-        <v>3.139022888879216</v>
+        <v>3.062336979365453</v>
       </c>
       <c r="J20">
-        <v>8.445512224566553</v>
+        <v>8.843502129681493</v>
       </c>
       <c r="K20">
-        <v>10.52492437420753</v>
+        <v>10.34242425367257</v>
       </c>
       <c r="L20">
-        <v>8.177048948833772</v>
+        <v>9.819406738667602</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.867518497170383</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.133490110024374</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>11.97013745150628</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.43694733803482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.15763306581446</v>
+      </c>
+      <c r="S20">
+        <v>14.18353066588002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.13419129839093</v>
+        <v>24.62817278254457</v>
       </c>
       <c r="C21">
-        <v>17.87735047933731</v>
+        <v>18.3864708865094</v>
       </c>
       <c r="D21">
-        <v>10.52085255796804</v>
+        <v>10.6336645610125</v>
       </c>
       <c r="E21">
-        <v>15.44250723670728</v>
+        <v>15.43189707923316</v>
       </c>
       <c r="F21">
-        <v>24.26799535013575</v>
+        <v>23.57444303680957</v>
       </c>
       <c r="G21">
-        <v>25.7041576733986</v>
+        <v>26.95653766810543</v>
       </c>
       <c r="H21">
-        <v>3.422373662782653</v>
+        <v>3.32304001666066</v>
       </c>
       <c r="J21">
-        <v>8.551989627473962</v>
+        <v>8.067442429742162</v>
       </c>
       <c r="K21">
-        <v>10.4371016283902</v>
+        <v>10.11160855531569</v>
       </c>
       <c r="L21">
-        <v>8.510079252295668</v>
+        <v>9.553532104765052</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.003420556571152</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.449894791123052</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>11.97725847750437</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.84981690253224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.25124171083083</v>
+      </c>
+      <c r="S21">
+        <v>14.32806803679648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.01215236565897</v>
+        <v>25.40917559309317</v>
       </c>
       <c r="C22">
-        <v>18.48738205505183</v>
+        <v>18.9401428979248</v>
       </c>
       <c r="D22">
-        <v>10.80205823442688</v>
+        <v>10.95841327256714</v>
       </c>
       <c r="E22">
-        <v>15.85054268441896</v>
+        <v>15.85158469563931</v>
       </c>
       <c r="F22">
-        <v>24.82445688716964</v>
+        <v>23.90524417768449</v>
       </c>
       <c r="G22">
-        <v>26.42163210794026</v>
+        <v>28.99184242982801</v>
       </c>
       <c r="H22">
-        <v>3.594917694040975</v>
+        <v>3.481322390046638</v>
       </c>
       <c r="J22">
-        <v>8.611758114104441</v>
+        <v>7.557551598944635</v>
       </c>
       <c r="K22">
-        <v>10.37271986089152</v>
+        <v>9.944905190040986</v>
       </c>
       <c r="L22">
-        <v>8.669444778401052</v>
+        <v>9.374982621976658</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.089471524797135</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.598439234078189</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>11.99329894259334</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.08956846358754</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.32754755436455</v>
+      </c>
+      <c r="S22">
+        <v>14.38142023453762</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.54727268490698</v>
+        <v>25.00615532718849</v>
       </c>
       <c r="C23">
-        <v>18.16433407918053</v>
+        <v>18.6656111208903</v>
       </c>
       <c r="D23">
-        <v>10.65280236446064</v>
+        <v>10.77971221165969</v>
       </c>
       <c r="E23">
-        <v>15.63398472377831</v>
+        <v>15.62653883514176</v>
       </c>
       <c r="F23">
-        <v>24.52781620821575</v>
+        <v>23.75842895965502</v>
       </c>
       <c r="G23">
-        <v>26.03912837835627</v>
+        <v>27.69207751767518</v>
       </c>
       <c r="H23">
-        <v>3.503164885938528</v>
+        <v>3.398050851097583</v>
       </c>
       <c r="J23">
-        <v>8.579443442942654</v>
+        <v>7.909604234874585</v>
       </c>
       <c r="K23">
-        <v>10.40603331006849</v>
+        <v>10.04504154944904</v>
       </c>
       <c r="L23">
-        <v>8.584743628407226</v>
+        <v>9.475969213148357</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.054024913691221</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.520536247712052</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>11.98444435432329</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.96106336419302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.28111748935859</v>
+      </c>
+      <c r="S23">
+        <v>14.3767238358066</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.70497516331013</v>
+        <v>23.3471158652933</v>
       </c>
       <c r="C24">
-        <v>16.8850042456059</v>
+        <v>17.46913552404456</v>
       </c>
       <c r="D24">
-        <v>10.06953255309838</v>
+        <v>10.11901970923964</v>
       </c>
       <c r="E24">
-        <v>14.78728594475478</v>
+        <v>14.76112104463582</v>
       </c>
       <c r="F24">
-        <v>23.39724651543571</v>
+        <v>23.03326710884536</v>
       </c>
       <c r="G24">
-        <v>24.58192604410979</v>
+        <v>23.91166970350778</v>
       </c>
       <c r="H24">
-        <v>3.148126815998094</v>
+        <v>3.071326762279935</v>
       </c>
       <c r="J24">
-        <v>8.466058243583765</v>
+        <v>8.869498022429898</v>
       </c>
       <c r="K24">
-        <v>10.55441443069534</v>
+        <v>10.36897826882558</v>
       </c>
       <c r="L24">
-        <v>8.256251983724434</v>
+        <v>9.838567763133886</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.888686193409313</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.212771644215358</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>11.9572519070245</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.48648477792332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.14446717553199</v>
+      </c>
+      <c r="S24">
+        <v>14.23227040222949</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.54182265222479</v>
+        <v>21.27173051453355</v>
       </c>
       <c r="C25">
-        <v>15.38528862812657</v>
+        <v>15.84121832394684</v>
       </c>
       <c r="D25">
-        <v>9.403618327529244</v>
+        <v>9.437408012409488</v>
       </c>
       <c r="E25">
-        <v>13.81918378175978</v>
+        <v>13.79711611014119</v>
       </c>
       <c r="F25">
-        <v>22.167335871181</v>
+        <v>21.91562283202401</v>
       </c>
       <c r="G25">
-        <v>22.99791558435884</v>
+        <v>22.20268314845058</v>
       </c>
       <c r="H25">
-        <v>2.748250465236818</v>
+        <v>2.69125351703799</v>
       </c>
       <c r="J25">
-        <v>8.362202553018713</v>
+        <v>8.859243029209161</v>
       </c>
       <c r="K25">
-        <v>10.75693482732341</v>
+        <v>10.62140397686749</v>
       </c>
       <c r="L25">
-        <v>7.886220301518164</v>
+        <v>10.17803445637159</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.686123765080662</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.853522318955096</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>11.94081896360828</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.00131044582822</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.06806061685013</v>
+      </c>
+      <c r="S25">
+        <v>13.8337922665506</v>
       </c>
     </row>
   </sheetData>
